--- a/biology/Zoologie/Barbican_olivâtre/Barbican_olivâtre.xlsx
+++ b/biology/Zoologie/Barbican_olivâtre/Barbican_olivâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barbican_oliv%C3%A2tre</t>
+          <t>Barbican_olivâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptolybia olivacea
 Le Barbican olivâtre (Cryptolybia olivacea) est une espèce d'oiseaux de la famille des Lybiidae, dont l'aire de répartition s'étend sur le Kenya, la Tanzanie, le Malawi, le Mozambique et l'Afrique du Sud.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barbican_oliv%C3%A2tre</t>
+          <t>Barbican_olivâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 14.1, 2024) du Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 C. olivacea olivacea (Shelley, 1880)
